--- a/inSANe/insane.xlsx
+++ b/inSANe/insane.xlsx
@@ -1,163 +1,606 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.4204"/>
+  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\TRPG\trpg\inSANe\"/>
+    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polks\Desktop\맛돈 서버\trpgbot\inSANe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2B8B31-FAE7-46ED-A015-C7AE0C9F9429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="14760" yWindow="2160" windowWidth="12690" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="181029"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+  </x:sheets>
+  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>광기카드 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광기카드 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런저런 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저떤 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔터도
-생각한 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <x:si>
+    <x:t>트리거: 당신과 같은 장면에 있는 캐릭터(당신도 포함)가 대미지를 입는다.
+피다! 당신은 아무튼 누군가를 해치고 싶다. 이 【광기】가 현재화한 장면에 등장한 PC 중에서 아무나 1명을 선택하여 1점의 대미지를 입힌다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭력충동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>짜증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>괴물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트리거: 당신이 누군가에게 1점 이상 대미지를 입는다.
+당신은 자신을 상처입히는 자가 무섭다. 그리고 그 인물에 관련된 모든 것이 무서워진다. 그 세션 동안, 트리거가 충족되는 계기를 제공한 캐릭터의 모든 특기가 당신의 【공포심】이 된다(미공개 【광기】가 4장 이상이 된 탓에 이 【광기】가 공개되었다면, 무작위로 선택한 특기분야 하나의 특기 전체가 【공포심】이 된다).</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적이냐 아군이냐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불길한 숫자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공포 연쇄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광신자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공포증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트리거: 같은 장면에 있는 누군가(당신도 포함)가 판정에 실패한다.
+왠지 짜증이 난다. 자잘한 불만이 쌓이고 쌓여 폭발할 것만 같다. 울컥울컥울컥울컥……. 당신이 가진 아이템을 아무거나 1개 소비한다. 아이템을 소비할 수 없다면 당신이 1점의 대미지를 입는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트리거: 같은 장면에 있는 누군가(당신도 포함)가 판정에서 굴린 주사위 눈에 4가 포함되어 있다.
+당신은 4라는 숫자가 무섭다. 왜냐하면, 죽을 사(死)를 연상케하기 때문이다. 트리거를 충족한 캐릭터 중에서 무작위로 선택한 1명에게 2점의 대미지를 입힌다(미공개 【광기】가 네 장 이상이 되어서 이 【광기】가 공개되었다면, 당신이 2점의 대미지를 입는다).</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트리거: 당신이 공포판정에 실패한다.
+그것을 보는 것도, 만지는 것도 견딜 수 없다. 당신은 자신이 새로운 【광기】를 공개할 때까지 【공포심】으로 지정된 특기를 사용할 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트리거: 누군가가 당신에 대한 마이너스 【감정】을 획득한다.
+운명의 만남이 바로 근처로 다가왔음을 느낀다. 이 【광기】가 현재화한 장면에 등장한 캐릭터 중에서 무작위로 1명을 선택한다. 그 캐릭터에 대해 「광신」의 【감정】을 획득한다. 그 후, 「광신」을 가지고 있는 상대를 공격할 때마다 당신의 【이성치】가 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트리거: 당신이 대미지를 입는다.
+아군이 아니면 모두 적이다. 당신에게 호의를 내비치지 않는 인간은 전부 죽어야 한다! 그 장면에 있는, 당신에 대해 플러스 【감정】을 가지지 않은 캐릭터 전원(당신은 제외)에게 1점의 대미지를 입힌다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트리거: 당신이 펌블을 발생시킨다.
+당신에게는 괴물 같은 일면이 있다. 이것을 들킬 수는 없다……. 이 【광기】가 현재화한 장면에 등장한 당신 이외의 PC 전원은 괴이 분야에서 무작위로 특기 하나를 선택해서 공포 판정을 해야 한다.</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fonts count="6">
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left>
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="2">
+    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="12">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf/>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffaebfea"/>
+          <x:bgColor rgb="ffaebfea"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color auto="1"/>
+            </x:left>
+            <x:right>
+              <x:color auto="1"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color auto="1"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color auto="1"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color auto="1"/>
+            </x:left>
+            <x:right>
+              <x:color auto="1"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color auto="1"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color auto="1"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff94a5df"/>
+          <x:bgColor rgb="ff94a5df"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:top style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:top>
+        <x:bottom style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:bottom>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff6182d6"/>
+          <x:bgColor rgb="ff6182d6"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </x:dxfs>
+  <x:tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <x:tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="9">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="0"/>
+      <x:tableStyleElement type="headerRow" size="1" dxfId="5"/>
+      <x:tableStyleElement type="totalRow" size="1" dxfId="4"/>
+      <x:tableStyleElement type="firstColumn" size="1" dxfId="3"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="3"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondColumnStripe" size="1" dxfId="1"/>
+    </x:tableStyle>
+    <x:tableStyle name="Light Style 1 - Accent 1" pivot="1" table="0" count="8">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+      <x:tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <x:tableStyleElement type="totalRow" size="1" dxfId="10"/>
+      <x:tableStyleElement type="firstColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="7"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="8"/>
+    </x:tableStyle>
+  </x:tableStyles>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="3A3C84"/>
+        <a:srgbClr val="3a3c84"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FAF3DB"/>
+        <a:srgbClr val="faf3db"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="6182D6"/>
+        <a:srgbClr val="6182d6"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="FF843A"/>
+        <a:srgbClr val="ff843a"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="B2B2B2"/>
+        <a:srgbClr val="b2b2b2"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFD700"/>
+        <a:srgbClr val="ffd700"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="289B6E"/>
+        <a:srgbClr val="289b6e"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="9D5CBB"/>
+        <a:srgbClr val="9d5cbb"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -175,7 +618,7 @@
         <a:cs typeface="HNC_GO_B_HINT_GS"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -371,55 +814,86 @@
       <a:lstStyle/>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet1"/>
+  <x:dimension ref="A1:B8"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="B9" activeCellId="0" sqref="B9:B9"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2" ht="392.89999999999997726263">
+      <x:c r="A1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2" ht="409.5">
+      <x:c r="A2" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2" ht="409.5">
+      <x:c r="A3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2" ht="409.5">
+      <x:c r="A4" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2" ht="409.5">
+      <x:c r="A5" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2" ht="327.39999999999997726263">
+      <x:c r="A6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2" ht="409.5">
+      <x:c r="A7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2" ht="409.5">
+      <x:c r="A8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.69999998807907104492" right="0.69999998807907104492" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+</x:worksheet>
 </file>